--- a/data/trans_bre/P34A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.989050917636465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-3.439630868279156</v>
+        <v>-3.439630868279159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06076854594200663</v>
@@ -649,7 +649,7 @@
         <v>0.1186871001413487</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1280319803543389</v>
+        <v>-0.128031980354339</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.226368532900855</v>
+        <v>-5.044478255328553</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07474525392479528</v>
+        <v>-0.3731381226749582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.718622110332753</v>
+        <v>-3.289565356048221</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.693486707779199</v>
+        <v>-9.05791969088237</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.108825730704723</v>
+        <v>-0.1298560491385586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006841250659265509</v>
+        <v>-0.03851712643637848</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1606978298515183</v>
+        <v>-0.1195268943173857</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2940922735778498</v>
+        <v>-0.2985908886671024</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.02524777957777</v>
+        <v>8.926343373626811</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.25612749458388</v>
+        <v>12.3215825952663</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.773172394903883</v>
+        <v>9.566875852314363</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.674472528850866</v>
+        <v>1.491490830098619</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2876270712361303</v>
+        <v>0.2743970943730564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.93654290414053</v>
+        <v>0.8911742677046252</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.396725318579574</v>
+        <v>0.4336592173286373</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.07211705576975409</v>
+        <v>0.06136096499920832</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.228140439054276</v>
+        <v>4.565595180694347</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.428709033254857</v>
+        <v>1.459734712909379</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5078438103659892</v>
+        <v>-0.9908658874079925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.440074834415648</v>
+        <v>1.963226934720846</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1544217636710987</v>
+        <v>0.1365919568416716</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06158650835290595</v>
+        <v>0.07241114129325099</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0172688560120913</v>
+        <v>-0.02934080527479935</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05320420978002201</v>
+        <v>0.06917073018404432</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.55880822911083</v>
+        <v>19.48058392918122</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.15066834114373</v>
+        <v>14.13513918742308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.83979611953041</v>
+        <v>12.30182702816855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.73678979315081</v>
+        <v>12.7467970103283</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.752018194021841</v>
+        <v>0.7394546665115221</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9219768672707773</v>
+        <v>0.9351698455007327</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.568791768419353</v>
+        <v>0.5296301577050549</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5728685576299966</v>
+        <v>0.5726204211392272</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.998956403381266</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.637453405900382</v>
+        <v>4.637453405900388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005999637254055253</v>
@@ -849,7 +849,7 @@
         <v>0.1358089491752515</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.125107402079924</v>
+        <v>0.1251074020799241</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.692020730688558</v>
+        <v>-8.087689181457698</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.259470354536775</v>
+        <v>2.924027762136174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.584122706790509</v>
+        <v>-3.736014512787862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.195425793387883</v>
+        <v>-3.412724039327656</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1590289753911091</v>
+        <v>-0.1719497779529081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08171420673819886</v>
+        <v>0.1019178951934883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08874714458275254</v>
+        <v>-0.09685352774603821</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07655421910930288</v>
+        <v>-0.08886558829194564</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.02024007637325</v>
+        <v>9.879876672661243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.42642280501047</v>
+        <v>17.07938258963221</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.32494409870463</v>
+        <v>14.53704392137685</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.13724208693226</v>
+        <v>12.28674249866993</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2285119736589657</v>
+        <v>0.2265139405912893</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7260817900588269</v>
+        <v>0.7287396821544811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4157926180448631</v>
+        <v>0.4082744310230005</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3573966907576209</v>
+        <v>0.3636706952640302</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.091014193161657</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.539491907284286</v>
+        <v>2.539491907284281</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006829992723329975</v>
@@ -949,7 +949,7 @@
         <v>0.1059829443850206</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06691577691749483</v>
+        <v>0.06691577691749469</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.60911792050054</v>
+        <v>-4.376610546573581</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.514695947301202</v>
+        <v>1.112861554908357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.3541428964498297</v>
+        <v>-0.3053186101071335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.631591392338684</v>
+        <v>-1.559854385088957</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09456797515708192</v>
+        <v>-0.08854994439127416</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04546243808847478</v>
+        <v>0.0404858518529352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.009964605720867319</v>
+        <v>-0.005930934413011042</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04103658823556425</v>
+        <v>-0.03908927190375919</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.201982127390535</v>
+        <v>5.042557840364719</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.32078382143087</v>
+        <v>9.752347781630183</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.493754536761697</v>
+        <v>8.398675748440077</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.642232801472268</v>
+        <v>6.560914057217341</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1140711694915019</v>
+        <v>0.1110698735580394</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4305166280265798</v>
+        <v>0.4078285023353594</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2285968061825944</v>
+        <v>0.229325165329671</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1857826639918522</v>
+        <v>0.1825072239896628</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.14911171651279</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.542171049979602</v>
+        <v>1.542171049979607</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06233776767289048</v>
@@ -1049,7 +1049,7 @@
         <v>0.1750614133824013</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.03489691614647767</v>
+        <v>0.0348969161464778</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.476692667331017</v>
+        <v>-4.186770826352864</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.663418353141538</v>
+        <v>3.214087816042937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.832053515115351</v>
+        <v>1.171023882812987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.322237345303304</v>
+        <v>-4.053444447951525</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.07923080474401178</v>
+        <v>-0.07257302744274136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.112369586585268</v>
+        <v>0.09810129027825218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04226816509367786</v>
+        <v>0.02527845344811374</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.08839481579364286</v>
+        <v>-0.08345031593153367</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.04259447229277</v>
+        <v>10.06023384738927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.12350436519509</v>
+        <v>14.05554175620621</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.84141264182421</v>
+        <v>12.40158957511952</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.845952366215602</v>
+        <v>7.388788135936138</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2194480584944577</v>
+        <v>0.2215406750525159</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5607390240388284</v>
+        <v>0.5629342352266731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3414937747518541</v>
+        <v>0.3233586608025619</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1708953691213861</v>
+        <v>0.1850298715396268</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>20.26864606618372</v>
+        <v>20.37702546974106</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>13.68766871753713</v>
+        <v>13.34005441349411</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24.26652629197993</v>
+        <v>23.55965909053699</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26.26985422826991</v>
+        <v>26.95728095453319</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8519311092255716</v>
+        <v>0.8918040176989722</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8697462461926567</v>
+        <v>0.8372155502058479</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.094917924199887</v>
+        <v>1.016768236874897</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.230431037638672</v>
+        <v>1.195288052738865</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>31.23990086049399</v>
+        <v>31.12987717360461</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.11888454161016</v>
+        <v>23.42424074236266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35.3790115736445</v>
+        <v>34.96355803583641</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43.38215032268569</v>
+        <v>43.62223258262592</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.074456984101184</v>
+        <v>2.085203161952231</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.779326070443486</v>
+        <v>2.774844448568919</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.570260019826186</v>
+        <v>2.406348966800902</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.472659411672082</v>
+        <v>6.252871387613911</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.395667265401074</v>
+        <v>2.639276015290256</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.063251463550772</v>
+        <v>6.278205558106607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.512643034619087</v>
+        <v>6.459453591982194</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.589263463971798</v>
+        <v>4.628650541772458</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05569824266412998</v>
+        <v>0.06327674038687922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2606963714762235</v>
+        <v>0.2691591611468843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.184808900984305</v>
+        <v>0.1844763361811794</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1318907167350117</v>
+        <v>0.1318420426828115</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.464824026158579</v>
+        <v>7.518145589767027</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.58184547095886</v>
+        <v>10.72200288526376</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.19483135832276</v>
+        <v>11.05625925692654</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.928672725070371</v>
+        <v>9.132220098804272</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1869114162826752</v>
+        <v>0.1900696119989771</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4935719647519411</v>
+        <v>0.5011622348717684</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3422458861835864</v>
+        <v>0.3373714951900211</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2749631192981433</v>
+        <v>0.2825242414382329</v>
       </c>
     </row>
     <row r="25">
